--- a/data-penerimaan-2021.xlsx
+++ b/data-penerimaan-2021.xlsx
@@ -3,15 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77BB27E-26DC-4EE2-ABFF-B560EDC8D745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE00796-8659-4919-B636-F393E22C72D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
     <sheet name="capaian" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -103,6 +114,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-[$Rp-3809]* #,##0_-;\-[$Rp-3809]* #,##0_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,12 +168,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="M15" sqref="A1:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,6 +538,7 @@
     <col min="11" max="11" width="18.21875" customWidth="1"/>
     <col min="12" max="12" width="18.44140625" customWidth="1"/>
     <col min="13" max="13" width="18.21875" customWidth="1"/>
+    <col min="14" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -568,40 +587,40 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>178824762</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>174371272</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>182250524</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>187046590</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>189444624</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>183278252</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>137373045</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>149705788</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>178824762</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>195953571</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>184648557</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>183278252</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -609,40 +628,40 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>88360471</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>86159923</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>90053200</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>92423021</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>93607932</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>90561019</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>67878446</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>73972271</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>88360471</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>96824117</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>91238111</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>90561019</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -650,40 +669,40 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>25245849</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>24617121</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>25729486</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>26406577</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>26745123</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>25874577</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>19393842</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>21134935</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>25245849</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>27664034</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>26068032</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>25874577</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -732,40 +751,40 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>93409640</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>91083347</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>95199097</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>97704337</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>98956956</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>95735934</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>71757214</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>78199258</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>93409640</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>102356924</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>96451717</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>95735934</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -814,40 +833,40 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>25245849</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>24617121</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>25729486</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>26406577</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>26745123</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>25874577</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>19393842</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>21134935</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>25245849</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>27664034</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>26068032</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>25874577</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -855,40 +874,40 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5469934</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5333709</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>5574722</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>5721425</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>5794777</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>5606158</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4201999</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4579236</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5469934</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>5993874</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5648074</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5606158</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -896,40 +915,40 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4207641</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>4102853</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>4288248</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>4401096</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>4457521</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>4312429</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3232307</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3522489</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4207641</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>4610672</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>4344672</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4312429</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1147,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:M15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1209,81 +1228,81 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1">
-        <v>32885000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>126721250</v>
-      </c>
-      <c r="D2" s="1">
-        <v>149556250</v>
-      </c>
-      <c r="E2" s="1">
-        <v>207685000</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="B2" s="2">
+        <v>36945000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>131431250</v>
+      </c>
+      <c r="D2" s="2">
+        <v>146345750</v>
+      </c>
+      <c r="E2" s="2">
+        <v>206195500</v>
+      </c>
+      <c r="F2" s="2">
         <v>91205000</v>
       </c>
-      <c r="G2" s="1">
-        <v>194466250</v>
-      </c>
-      <c r="H2" s="1">
-        <v>148937500</v>
-      </c>
-      <c r="I2" s="1">
-        <v>218418750</v>
-      </c>
-      <c r="J2" s="1">
-        <v>302138750</v>
-      </c>
-      <c r="K2" s="1">
-        <v>238547500</v>
-      </c>
-      <c r="L2" s="1">
-        <v>158852500</v>
-      </c>
-      <c r="M2" s="1">
-        <v>99485000</v>
+      <c r="G2" s="2">
+        <v>151306250</v>
+      </c>
+      <c r="H2" s="2">
+        <v>154832500</v>
+      </c>
+      <c r="I2" s="2">
+        <v>198063750</v>
+      </c>
+      <c r="J2" s="2">
+        <v>315353750</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>438745000</v>
+      </c>
+      <c r="M2" s="2">
+        <v>106525000</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1">
-        <v>28425000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>159650000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>122125000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>70100000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>105700000</v>
-      </c>
-      <c r="G3" s="1">
-        <v>122500000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>31850000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>48950000</v>
-      </c>
-      <c r="J3" s="1">
-        <v>112800000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>48950000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>134400000</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="B3" s="2">
+        <v>3227500</v>
+      </c>
+      <c r="C3" s="2">
+        <v>190622500</v>
+      </c>
+      <c r="D3" s="2">
+        <v>116350000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>62050000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>16200000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>65850000</v>
+      </c>
+      <c r="H3" s="2">
+        <v>15050000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>203300000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>120150000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>184600000</v>
+      </c>
+      <c r="M3" s="2">
         <v>11750000</v>
       </c>
     </row>
@@ -1291,41 +1310,41 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1">
-        <v>15615000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>17910000</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="2">
+        <v>17700000</v>
+      </c>
+      <c r="C4" s="2">
         <v>18760000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="D4" s="2">
+        <v>15825000</v>
+      </c>
+      <c r="E4" s="2">
         <v>7490000</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>36892000</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>4995000</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>2210000</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>4090000</v>
       </c>
-      <c r="J4" s="1">
-        <v>63305000</v>
-      </c>
-      <c r="K4" s="1">
-        <v>50770000</v>
-      </c>
-      <c r="L4" s="1">
-        <v>119266000</v>
-      </c>
-      <c r="M4" s="1">
-        <v>7190000</v>
+      <c r="J4" s="2">
+        <v>63885000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>174606000</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2040000</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1351,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>17200000</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>61800000</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>33000000</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>97200000</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>14200000</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1374,40 +1393,40 @@
         <v>17</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>83100000</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>73100000</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>74850000</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>100200000</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>38350000</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>53500000</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>18800000</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>253450000</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>147450000</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>223540000</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>121460000</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1456,19 +1475,19 @@
         <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>112500000</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>36000000</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>129000000</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1480,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>99500000</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1496,40 +1515,40 @@
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>9000000</v>
+      </c>
+      <c r="M9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1538,7 +1557,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>29500000</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -1578,40 +1597,40 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1701,40 +1720,40 @@
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1742,40 +1761,40 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
         <v>0</v>
       </c>
     </row>
